--- a/plantilla/estadisticas.xlsx
+++ b/plantilla/estadisticas.xlsx
@@ -180,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,10 +198,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,7 +548,7 @@
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -565,7 +561,7 @@
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -578,7 +574,7 @@
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -591,7 +587,7 @@
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -604,7 +600,7 @@
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -617,7 +613,7 @@
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -630,7 +626,7 @@
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -643,7 +639,7 @@
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -656,7 +652,7 @@
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -669,7 +665,7 @@
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -682,7 +678,7 @@
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -695,7 +691,7 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -708,7 +704,7 @@
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -721,7 +717,7 @@
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -734,7 +730,7 @@
       <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -747,7 +743,7 @@
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -760,7 +756,7 @@
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -773,7 +769,7 @@
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -786,7 +782,7 @@
       <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -799,7 +795,7 @@
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
